--- a/data/trans_orig/GENERO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/GENERO-Clase-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Género en Barcelona</t>
+          <t>Género en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/GENERO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/GENERO-Clase-trans_orig.xlsx
@@ -743,7 +743,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2747</t>
+          <t>2406</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2360</t>
+          <t>2401</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>3358</t>
+          <t>2860</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,69%</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>208036</t>
+          <t>207995</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>98,88%</t>
+          <t>98,86%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>196868</t>
+          <t>195613</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>223108</t>
+          <t>223904</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>47,32%</t>
+          <t>47,02%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>53,63%</t>
+          <t>53,82%</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>202895</t>
+          <t>203236</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>98,66%</t>
+          <t>98,83%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>191696</t>
+          <t>191275</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>218252</t>
+          <t>219933</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>46,08%</t>
+          <t>45,98%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>52,46%</t>
+          <t>52,86%</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2246</t>
+          <t>2369</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2185</t>
+          <t>2213</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,75%</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>165336</t>
+          <t>166147</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>97,81%</t>
+          <t>98,29%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
@@ -1377,12 +1377,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>155878</t>
+          <t>156616</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>180475</t>
+          <t>180095</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1392,12 +1392,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>53,02%</t>
+          <t>53,27%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>61,39%</t>
+          <t>61,26%</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>122702</t>
+          <t>122579</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>98,2%</t>
+          <t>98,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3707</t>
+          <t>2896</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1490,12 +1490,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>113103</t>
+          <t>113155</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>137836</t>
+          <t>136843</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1505,12 +1505,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>38,47%</t>
+          <t>38,49%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>46,88%</t>
+          <t>46,55%</t>
         </is>
       </c>
     </row>
@@ -1833,12 +1833,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>48066</t>
+          <t>47330</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>66925</t>
+          <t>67457</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>31,3%</t>
+          <t>30,82%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>43,58%</t>
+          <t>43,93%</t>
         </is>
       </c>
     </row>
@@ -1946,12 +1946,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>86632</t>
+          <t>86100</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>105491</t>
+          <t>106227</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1961,12 +1961,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>56,42%</t>
+          <t>56,07%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>68,7%</t>
+          <t>69,18%</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>211</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>2598</t>
+          <t>2648</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2176,12 +2176,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>211</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>2372</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2191,12 +2191,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,74%</t>
         </is>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4896</t>
+          <t>5411</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2254,12 +2254,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>156310</t>
+          <t>156260</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>158702</t>
+          <t>158697</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>98,37%</t>
+          <t>98,33%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>143844</t>
+          <t>144396</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>174335</t>
+          <t>173610</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2304,12 +2304,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>44,66%</t>
+          <t>44,84%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>54,13%</t>
+          <t>53,91%</t>
         </is>
       </c>
     </row>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>158246</t>
+          <t>157731</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>97,0%</t>
+          <t>96,68%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -2402,12 +2402,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>146739</t>
+          <t>147594</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>177335</t>
+          <t>176902</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2417,12 +2417,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>45,56%</t>
+          <t>45,83%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>55,06%</t>
+          <t>54,93%</t>
         </is>
       </c>
     </row>
@@ -2745,12 +2745,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>84095</t>
+          <t>84321</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>102851</t>
+          <t>103719</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2760,12 +2760,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>56,76%</t>
+          <t>56,92%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>69,42%</t>
+          <t>70,01%</t>
         </is>
       </c>
     </row>
@@ -2858,12 +2858,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>45299</t>
+          <t>44431</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>64055</t>
+          <t>63829</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -2873,12 +2873,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>30,58%</t>
+          <t>29,99%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>43,24%</t>
+          <t>43,08%</t>
         </is>
       </c>
     </row>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>969</t>
+          <t>1097</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>2812</t>
+          <t>2466</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>2885</t>
+          <t>3290</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>3,29%</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>60514</t>
+          <t>60098</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>94,87%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
@@ -3201,12 +3201,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>54468</t>
+          <t>53576</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>69276</t>
+          <t>70231</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -3216,12 +3216,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>54,52%</t>
+          <t>53,63%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>69,35%</t>
+          <t>70,3%</t>
         </is>
       </c>
     </row>
@@ -3244,7 +3244,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>35578</t>
+          <t>35450</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -3259,7 +3259,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>97,35%</t>
+          <t>97,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>2282</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -3299,7 +3299,7 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3314,12 +3314,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>29865</t>
+          <t>29127</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>44776</t>
+          <t>45555</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -3329,12 +3329,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>29,9%</t>
+          <t>29,16%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>44,82%</t>
+          <t>45,6%</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>3486</t>
+          <t>3036</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3494,7 +3494,7 @@
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3509,12 +3509,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>677</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>4420</t>
+          <t>4389</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3544,12 +3544,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>1124</t>
+          <t>1315</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>5429</t>
+          <t>6080</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3559,12 +3559,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,42%</t>
         </is>
       </c>
     </row>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>4227</t>
+          <t>5038</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3622,12 +3622,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>747750</t>
+          <t>747541</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>752358</t>
+          <t>752324</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>99,23%</t>
+          <t>99,2%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
@@ -3657,12 +3657,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>724061</t>
+          <t>722971</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>780749</t>
+          <t>781656</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -3672,12 +3672,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>50,5%</t>
+          <t>50,43%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>54,46%</t>
+          <t>54,52%</t>
         </is>
       </c>
     </row>
@@ -3700,12 +3700,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>674820</t>
+          <t>674101</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>679593</t>
+          <t>679530</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -3715,12 +3715,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>99,22%</t>
+          <t>99,11%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>99,92%</t>
+          <t>99,91%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>3572</t>
+          <t>3355</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -3755,7 +3755,7 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3770,12 +3770,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>649632</t>
+          <t>650727</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>705808</t>
+          <t>707826</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -3785,12 +3785,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>45,31%</t>
+          <t>45,39%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>49,23%</t>
+          <t>49,37%</t>
         </is>
       </c>
     </row>
